--- a/黑色/铁矿/eta/1.铁矿_数据上传.xlsx
+++ b/黑色/铁矿/eta/1.铁矿_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12960" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1441,7 +1441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
@@ -2849,9 +2849,6 @@
       <c r="Q27" s="6" t="n"/>
       <c r="R27" s="6" t="n"/>
     </row>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/黑色/铁矿/eta/1.铁矿_数据上传.xlsx
+++ b/黑色/铁矿/eta/1.铁矿_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12960" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1202,7 +1202,7 @@
         <v>45787</v>
       </c>
       <c r="F3" t="n">
-        <v>236.47</v>
+        <v>237.12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45787</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.683</v>
+        <v>-52.816</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45788</v>
       </c>
       <c r="F5" t="n">
-        <v>2.8968</v>
+        <v>3.386</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>0.02047066690077711</v>
+        <v>0.02019466991781531</v>
       </c>
       <c r="J6" s="21" t="n"/>
       <c r="K6" s="25" t="n"/>
@@ -1441,7 +1441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>236.47</v>
+        <v>237.12</v>
       </c>
       <c r="E3" s="10" t="n"/>
       <c r="F3" t="inlineStr">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-55.683</v>
+        <v>-52.816</v>
       </c>
       <c r="J3" s="10" t="n"/>
       <c r="K3" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="L3" s="7" t="n"/>
       <c r="M3" s="1" t="n">
-        <v>2.8968</v>
+        <v>3.386</v>
       </c>
       <c r="O3" s="10" t="n"/>
       <c r="P3" t="inlineStr">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>240.9</v>
+        <v>241.44</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L4" s="1" t="n"/>
       <c r="M4" s="1" t="n">
-        <v>3.5315</v>
+        <v>3.5051</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="Q4" s="1" t="n"/>
       <c r="R4" s="1" t="n">
-        <v>809.8200000000001</v>
+        <v>815.12</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>779.29</v>
+        <v>780.75</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>805.12</v>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="T5" s="11" t="n">
-        <v>0.0331455555698136</v>
+        <v>0.03121357668908102</v>
       </c>
       <c r="U5" s="29" t="n"/>
       <c r="W5" s="31" t="n"/>
@@ -2849,6 +2849,9 @@
       <c r="Q27" s="6" t="n"/>
       <c r="R27" s="6" t="n"/>
     </row>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3003,7 +3006,7 @@
       </c>
       <c r="B3" s="3" t="n"/>
       <c r="C3" t="n">
-        <v>236.1258697509766</v>
+        <v>236.8596801757812</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3012,7 +3015,7 @@
       </c>
       <c r="E3" s="1" t="n"/>
       <c r="F3" t="n">
-        <v>-55.5979118347168</v>
+        <v>-43.77677154541016</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3021,7 +3024,7 @@
       </c>
       <c r="H3" s="1" t="n"/>
       <c r="I3" t="n">
-        <v>2.896790476190489</v>
+        <v>3.385990476190443</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="K3" s="4" t="n"/>
       <c r="L3" t="n">
-        <v>812.5724</v>
+        <v>828.2710000000001</v>
       </c>
       <c r="M3" s="34" t="n"/>
       <c r="N3" s="6" t="n"/>
@@ -3076,7 +3079,7 @@
       </c>
       <c r="B4" s="3" t="n"/>
       <c r="C4" t="n">
-        <v>235.5804443359375</v>
+        <v>236.5670776367188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3085,7 +3088,7 @@
       </c>
       <c r="E4" s="1" t="n"/>
       <c r="F4" t="n">
-        <v>-56.76433181762695</v>
+        <v>-46.85277938842773</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3094,7 +3097,7 @@
       </c>
       <c r="H4" s="1" t="n"/>
       <c r="I4" t="n">
-        <v>2.227885714285719</v>
+        <v>2.885685714285728</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -3103,7 +3106,7 @@
       </c>
       <c r="K4" s="4" t="n"/>
       <c r="L4" t="n">
-        <v>811.688</v>
+        <v>824.6310000000001</v>
       </c>
       <c r="M4" s="34" t="n"/>
       <c r="N4" s="6" t="n"/>
@@ -3149,7 +3152,7 @@
       </c>
       <c r="B5" s="3" t="n"/>
       <c r="C5" t="n">
-        <v>235.4432678222656</v>
+        <v>236.2936553955078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3158,7 +3161,7 @@
       </c>
       <c r="E5" s="1" t="n"/>
       <c r="F5" t="n">
-        <v>-59.10610198974609</v>
+        <v>-48.91733169555664</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3167,7 +3170,7 @@
       </c>
       <c r="H5" s="1" t="n"/>
       <c r="I5" t="n">
-        <v>1.831247619047616</v>
+        <v>2.398180952380955</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -3176,7 +3179,7 @@
       </c>
       <c r="K5" s="4" t="n"/>
       <c r="L5" t="n">
-        <v>809.9102</v>
+        <v>823.0600000000001</v>
       </c>
       <c r="M5" s="34" t="n"/>
       <c r="N5" s="6" t="n"/>
@@ -3222,7 +3225,7 @@
       </c>
       <c r="B6" s="3" t="n"/>
       <c r="C6" t="n">
-        <v>236.2967529296875</v>
+        <v>237.201416015625</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3231,7 +3234,7 @@
       </c>
       <c r="E6" s="1" t="n"/>
       <c r="F6" t="n">
-        <v>-59.55612564086914</v>
+        <v>-56.11175537109375</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3240,7 +3243,7 @@
       </c>
       <c r="H6" s="1" t="n"/>
       <c r="I6" t="n">
-        <v>2.095009523809523</v>
+        <v>2.698076190476172</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -3249,7 +3252,7 @@
       </c>
       <c r="K6" s="4" t="n"/>
       <c r="L6" t="n">
-        <v>807.2042</v>
+        <v>813.8915000000001</v>
       </c>
       <c r="M6" s="34" t="n"/>
       <c r="N6" s="6" t="n"/>
@@ -3295,7 +3298,7 @@
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" t="n">
-        <v>238.9225463867188</v>
+        <v>238.6976318359375</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3304,7 +3307,7 @@
       </c>
       <c r="E7" s="1" t="n"/>
       <c r="F7" t="n">
-        <v>-58.39832305908203</v>
+        <v>-54.79301071166992</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3313,7 +3316,7 @@
       </c>
       <c r="H7" s="1" t="n"/>
       <c r="I7" t="n">
-        <v>3.540238095238124</v>
+        <v>3.390304761904758</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -3322,7 +3325,7 @@
       </c>
       <c r="K7" s="4" t="n"/>
       <c r="L7" t="n">
-        <v>808.2915</v>
+        <v>815.1398</v>
       </c>
       <c r="M7" s="34" t="n"/>
       <c r="N7" s="6" t="n"/>
@@ -3368,7 +3371,7 @@
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" t="n">
-        <v>240.2565765380859</v>
+        <v>240.5879364013672</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3377,7 +3380,7 @@
       </c>
       <c r="E8" s="1" t="n"/>
       <c r="F8" t="n">
-        <v>-56.79941177368164</v>
+        <v>-52.73707962036133</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3386,7 +3389,7 @@
       </c>
       <c r="H8" s="1" t="n"/>
       <c r="I8" t="n">
-        <v>3.53146666666666</v>
+        <v>3.505133333333362</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -3395,7 +3398,7 @@
       </c>
       <c r="K8" s="4" t="n"/>
       <c r="L8" t="n">
-        <v>809.8199000000001</v>
+        <v>815.9267000000001</v>
       </c>
       <c r="M8" s="34" t="n"/>
       <c r="N8" s="6" t="n"/>
@@ -3441,7 +3444,7 @@
       </c>
       <c r="B9" s="3" t="n"/>
       <c r="C9" t="n">
-        <v>240.333251953125</v>
+        <v>241.1501770019531</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3450,7 +3453,7 @@
       </c>
       <c r="E9" s="1" t="n"/>
       <c r="F9" t="n">
-        <v>-48.76427459716797</v>
+        <v>-34.52918243408203</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3459,7 +3462,7 @@
       </c>
       <c r="H9" s="1" t="n"/>
       <c r="I9" t="n">
-        <v>3.726028571428571</v>
+        <v>3.823295238095227</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -3468,7 +3471,7 @@
       </c>
       <c r="K9" s="4" t="n"/>
       <c r="L9" t="n">
-        <v>817.6435</v>
+        <v>834.2756000000001</v>
       </c>
       <c r="M9" s="34" t="n"/>
       <c r="N9" s="6" t="n"/>
@@ -3514,7 +3517,7 @@
       </c>
       <c r="B10" s="3" t="n"/>
       <c r="C10" t="n">
-        <v>240.2834014892578</v>
+        <v>241.1166229248047</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3523,7 +3526,7 @@
       </c>
       <c r="E10" s="1" t="n"/>
       <c r="F10" t="n">
-        <v>-61.37434387207031</v>
+        <v>-46.51991653442383</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3532,7 +3535,7 @@
       </c>
       <c r="H10" s="1" t="n"/>
       <c r="I10" t="n">
-        <v>3.888685714285714</v>
+        <v>4.109552380952351</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -3541,7 +3544,7 @@
       </c>
       <c r="K10" s="4" t="n"/>
       <c r="L10" t="n">
-        <v>805.245</v>
+        <v>822.5669</v>
       </c>
       <c r="M10" s="34" t="n"/>
       <c r="N10" s="6" t="n"/>
@@ -3587,7 +3590,7 @@
       </c>
       <c r="B11" s="3" t="n"/>
       <c r="C11" t="n">
-        <v>240.3197631835938</v>
+        <v>241.1400146484375</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -3596,7 +3599,7 @@
       </c>
       <c r="E11" s="1" t="n"/>
       <c r="F11" t="n">
-        <v>-62.28369522094727</v>
+        <v>-60.70608901977539</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3605,7 +3608,7 @@
       </c>
       <c r="H11" s="1" t="n"/>
       <c r="I11" t="n">
-        <v>3.806009523809507</v>
+        <v>4.35060952380951</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -3614,7 +3617,7 @@
       </c>
       <c r="K11" s="4" t="n"/>
       <c r="L11" t="n">
-        <v>803.9126</v>
+        <v>807.8872</v>
       </c>
       <c r="M11" s="34" t="n"/>
       <c r="N11" s="6" t="n"/>
@@ -3660,7 +3663,7 @@
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" t="n">
-        <v>240.5834655761719</v>
+        <v>241.2294006347656</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3669,7 +3672,7 @@
       </c>
       <c r="E12" s="1" t="n"/>
       <c r="F12" t="n">
-        <v>-47.73628997802734</v>
+        <v>-38.2725830078125</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3678,7 +3681,7 @@
       </c>
       <c r="H12" s="1" t="n"/>
       <c r="I12" t="n">
-        <v>3.638933333333341</v>
+        <v>4.194400000000002</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -3687,7 +3690,7 @@
       </c>
       <c r="K12" s="4" t="n"/>
       <c r="L12" t="n">
-        <v>817.191</v>
+        <v>829.0517000000001</v>
       </c>
       <c r="M12" s="34" t="n"/>
       <c r="N12" s="6" t="n"/>
@@ -3733,7 +3736,7 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" t="n">
-        <v>241.0668182373047</v>
+        <v>241.7053070068359</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -3742,7 +3745,7 @@
       </c>
       <c r="E13" s="1" t="n"/>
       <c r="F13" t="n">
-        <v>-45.08308029174805</v>
+        <v>-54.93824005126953</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3751,7 +3754,7 @@
       </c>
       <c r="H13" s="1" t="n"/>
       <c r="I13" t="n">
-        <v>3.529390476190457</v>
+        <v>4.076190476190476</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -3760,7 +3763,7 @@
       </c>
       <c r="K13" s="4" t="n"/>
       <c r="L13" t="n">
-        <v>823.7217000000001</v>
+        <v>816.1226</v>
       </c>
       <c r="M13" s="34" t="n"/>
       <c r="N13" s="6" t="n"/>
@@ -3806,7 +3809,7 @@
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" t="n">
-        <v>240.6098480224609</v>
+        <v>241.2978515625</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -3815,7 +3818,7 @@
       </c>
       <c r="E14" s="1" t="n"/>
       <c r="F14" t="n">
-        <v>-48.72829437255859</v>
+        <v>-53.03667831420898</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3824,7 +3827,7 @@
       </c>
       <c r="H14" s="1" t="n"/>
       <c r="I14" t="n">
-        <v>3.571380952380906</v>
+        <v>4.001980952380933</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -3833,7 +3836,7 @@
       </c>
       <c r="K14" s="4" t="n"/>
       <c r="L14" t="n">
-        <v>817.1155</v>
+        <v>815.2746000000001</v>
       </c>
       <c r="M14" s="34" t="n"/>
       <c r="N14" s="6" t="n"/>
@@ -3879,7 +3882,7 @@
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" t="n">
-        <v>240.6098480224609</v>
+        <v>241.2978515625</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -3888,7 +3891,7 @@
       </c>
       <c r="E15" s="1" t="n"/>
       <c r="F15" t="n">
-        <v>-54.20437240600586</v>
+        <v>-55.46070098876953</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3897,7 +3900,7 @@
       </c>
       <c r="H15" s="1" t="n"/>
       <c r="I15" t="n">
-        <v>3.544971428571415</v>
+        <v>3.97392698412699</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -3906,7 +3909,7 @@
       </c>
       <c r="K15" s="4" t="n"/>
       <c r="L15" t="n">
-        <v>808.4669</v>
+        <v>809.5371</v>
       </c>
       <c r="M15" s="34" t="n"/>
       <c r="N15" s="6" t="n"/>
@@ -3952,7 +3955,7 @@
       </c>
       <c r="B16" s="3" t="n"/>
       <c r="C16" t="n">
-        <v>240.6150512695312</v>
+        <v>241.0548706054688</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -3961,7 +3964,7 @@
       </c>
       <c r="E16" s="1" t="n"/>
       <c r="F16" t="n">
-        <v>-54.52980804443359</v>
+        <v>-61.98979187011719</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3970,7 +3973,7 @@
       </c>
       <c r="H16" s="1" t="n"/>
       <c r="I16" t="n">
-        <v>3.553799999999995</v>
+        <v>3.98111111111109</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -3979,7 +3982,7 @@
       </c>
       <c r="K16" s="4" t="n"/>
       <c r="L16" t="n">
-        <v>809.8335000000001</v>
+        <v>804.4885</v>
       </c>
       <c r="M16" s="34" t="n"/>
       <c r="N16" s="6" t="n"/>
@@ -4025,7 +4028,7 @@
       </c>
       <c r="B17" s="3" t="n"/>
       <c r="C17" t="n">
-        <v>240.5882415771484</v>
+        <v>241.1006164550781</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -4034,7 +4037,7 @@
       </c>
       <c r="E17" s="1" t="n"/>
       <c r="F17" t="n">
-        <v>-60.08267593383789</v>
+        <v>-61.31135940551758</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4043,7 +4046,7 @@
       </c>
       <c r="H17" s="1" t="n"/>
       <c r="I17" t="n">
-        <v>3.647866666666658</v>
+        <v>4.07353333333333</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -4052,7 +4055,7 @@
       </c>
       <c r="K17" s="4" t="n"/>
       <c r="L17" t="n">
-        <v>801.7426</v>
+        <v>801.9944</v>
       </c>
       <c r="M17" s="34" t="n"/>
       <c r="N17" s="6" t="n"/>
@@ -4098,7 +4101,7 @@
       </c>
       <c r="B18" s="3" t="n"/>
       <c r="C18" t="n">
-        <v>241.0067291259766</v>
+        <v>241.528564453125</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -4107,7 +4110,7 @@
       </c>
       <c r="E18" s="1" t="n"/>
       <c r="F18" t="n">
-        <v>-59.15317153930664</v>
+        <v>-61.88271331787109</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4116,7 +4119,7 @@
       </c>
       <c r="H18" s="1" t="n"/>
       <c r="I18" t="n">
-        <v>3.329866666666675</v>
+        <v>3.788599999999974</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -4125,7 +4128,7 @@
       </c>
       <c r="K18" s="4" t="n"/>
       <c r="L18" t="n">
-        <v>800.7686</v>
+        <v>799.0966000000001</v>
       </c>
       <c r="M18" s="34" t="n"/>
       <c r="N18" s="6" t="n"/>
@@ -4171,7 +4174,7 @@
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" t="n">
-        <v>241.0146789550781</v>
+        <v>241.5213470458984</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -4180,7 +4183,7 @@
       </c>
       <c r="E19" s="1" t="n"/>
       <c r="F19" t="n">
-        <v>-58.44981384277344</v>
+        <v>-66.03093719482422</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4189,7 +4192,7 @@
       </c>
       <c r="H19" s="1" t="n"/>
       <c r="I19" t="n">
-        <v>3.316533333333325</v>
+        <v>3.775266666666653</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -4198,7 +4201,7 @@
       </c>
       <c r="K19" s="4" t="n"/>
       <c r="L19" t="n">
-        <v>801.8245000000001</v>
+        <v>795.7944</v>
       </c>
       <c r="M19" s="34" t="n"/>
       <c r="N19" s="6" t="n"/>
@@ -4244,7 +4247,7 @@
       </c>
       <c r="B20" s="3" t="n"/>
       <c r="C20" t="n">
-        <v>240.8389892578125</v>
+        <v>241.3417358398438</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4253,7 +4256,7 @@
       </c>
       <c r="E20" s="1" t="n"/>
       <c r="F20" t="n">
-        <v>-55.8990364074707</v>
+        <v>-71.05775451660156</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4262,7 +4265,7 @@
       </c>
       <c r="H20" s="1" t="n"/>
       <c r="I20" t="n">
-        <v>3.306733333333369</v>
+        <v>3.599933333333325</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -4271,7 +4274,7 @@
       </c>
       <c r="K20" s="4" t="n"/>
       <c r="L20" t="n">
-        <v>806.6313</v>
+        <v>793.9400000000001</v>
       </c>
       <c r="M20" s="34" t="n"/>
       <c r="N20" s="6" t="n"/>
@@ -4317,7 +4320,7 @@
       </c>
       <c r="B21" s="3" t="n"/>
       <c r="C21" t="n">
-        <v>241.7556610107422</v>
+        <v>242.2373962402344</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -4326,7 +4329,7 @@
       </c>
       <c r="E21" s="1" t="n"/>
       <c r="F21" t="n">
-        <v>-51.44405746459961</v>
+        <v>-68.94922637939453</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4335,7 +4338,7 @@
       </c>
       <c r="H21" s="1" t="n"/>
       <c r="I21" t="n">
-        <v>3.275466666666659</v>
+        <v>3.617066666666688</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="K21" s="4" t="n"/>
       <c r="L21" t="n">
-        <v>802.1327</v>
+        <v>786.8131000000001</v>
       </c>
       <c r="M21" s="34" t="n"/>
       <c r="N21" s="6" t="n"/>
@@ -4390,7 +4393,7 @@
       </c>
       <c r="B22" s="3" t="n"/>
       <c r="C22" t="n">
-        <v>241.2304382324219</v>
+        <v>241.7492523193359</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -4399,7 +4402,7 @@
       </c>
       <c r="E22" s="1" t="n"/>
       <c r="F22" t="n">
-        <v>-52.517578125</v>
+        <v>-67.42385101318359</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4408,7 +4411,7 @@
       </c>
       <c r="H22" s="1" t="n"/>
       <c r="I22" t="n">
-        <v>3.355133333333328</v>
+        <v>3.698844444444433</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -4417,7 +4420,7 @@
       </c>
       <c r="K22" s="4" t="n"/>
       <c r="L22" t="n">
-        <v>799.2262000000001</v>
+        <v>792.5</v>
       </c>
       <c r="M22" s="34" t="n"/>
       <c r="N22" s="6" t="n"/>
@@ -4463,7 +4466,7 @@
       </c>
       <c r="B23" s="3" t="n"/>
       <c r="C23" t="n">
-        <v>240.9915313720703</v>
+        <v>241.4899749755859</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -4472,7 +4475,7 @@
       </c>
       <c r="E23" s="1" t="n"/>
       <c r="F23" t="n">
-        <v>-70.91519927978516</v>
+        <v>-66.65044403076172</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4481,16 +4484,16 @@
       </c>
       <c r="H23" s="1" t="n"/>
       <c r="I23" t="n">
-        <v>3.286704761904787</v>
+        <v>3.632526984126997</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="K23" s="4" t="n"/>
       <c r="L23" t="n">
-        <v>780.3351</v>
+        <v>786.2939</v>
       </c>
       <c r="M23" s="34" t="n"/>
       <c r="N23" s="6" t="n"/>
@@ -4536,7 +4539,7 @@
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" t="n">
-        <v>241.6447601318359</v>
+        <v>242.0936889648438</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -4545,7 +4548,7 @@
       </c>
       <c r="E24" s="1" t="n"/>
       <c r="F24" t="n">
-        <v>-76.26570129394531</v>
+        <v>-76.88581085205078</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4554,16 +4557,15 @@
       </c>
       <c r="H24" s="1" t="n"/>
       <c r="I24" t="n">
-        <v>3.314466666666647</v>
+        <v>3.662399999999991</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="n"/>
-      <c r="L24" t="n">
-        <v>770.8251</v>
+          <t>2025/10/28</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="n">
+        <v>792.5</v>
       </c>
       <c r="M24" s="34" t="n"/>
       <c r="N24" s="6" t="n"/>
@@ -4609,7 +4611,7 @@
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" t="n">
-        <v>241.4011077880859</v>
+        <v>241.7141418457031</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -4626,16 +4628,17 @@
       </c>
       <c r="H25" s="1" t="n"/>
       <c r="I25" t="n">
-        <v>3.254561904761914</v>
+        <v>3.592295238095261</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025/10/25</t>
-        </is>
-      </c>
-      <c r="L25" s="7" t="n">
-        <v>771</v>
-      </c>
+          <t>2025/10/27</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>786.5</v>
+      </c>
+      <c r="L25" s="7" t="n"/>
       <c r="M25" s="34" t="n"/>
       <c r="N25" s="6" t="n"/>
       <c r="O25" s="6" t="n"/>
@@ -4680,7 +4683,7 @@
       </c>
       <c r="B26" s="3" t="n"/>
       <c r="C26" t="n">
-        <v>241.2876739501953</v>
+        <v>241.5181121826172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -4697,7 +4700,7 @@
       </c>
       <c r="H26" s="1" t="n"/>
       <c r="I26" t="n">
-        <v>3.072190476190514</v>
+        <v>3.407323809523831</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -4752,7 +4755,7 @@
       </c>
       <c r="B27" s="3" t="n"/>
       <c r="C27" t="n">
-        <v>241.6539306640625</v>
+        <v>241.9895782470703</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -4769,7 +4772,7 @@
       </c>
       <c r="H27" s="1" t="n"/>
       <c r="I27" t="n">
-        <v>3.618085714285684</v>
+        <v>3.939219047619076</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -4824,7 +4827,7 @@
       </c>
       <c r="B28" s="3" t="n"/>
       <c r="C28" t="n">
-        <v>242.7297210693359</v>
+        <v>243.2627258300781</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4841,7 +4844,7 @@
       </c>
       <c r="H28" s="1" t="n"/>
       <c r="I28" t="n">
-        <v>3.20264761904761</v>
+        <v>3.548580952380973</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -4896,7 +4899,7 @@
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" t="n">
-        <v>240.9407958984375</v>
+        <v>241.4055023193359</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4913,7 +4916,7 @@
       </c>
       <c r="H29" s="1" t="n"/>
       <c r="I29" t="n">
-        <v>3.08432063492063</v>
+        <v>3.425720634920623</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -4968,7 +4971,7 @@
       </c>
       <c r="B30" s="3" t="n"/>
       <c r="C30" t="n">
-        <v>240.6584625244141</v>
+        <v>241.0823364257812</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4985,7 +4988,7 @@
       </c>
       <c r="H30" s="1" t="n"/>
       <c r="I30" t="n">
-        <v>2.993136507936526</v>
+        <v>3.330003174603178</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -5040,7 +5043,7 @@
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" t="n">
-        <v>240.6709289550781</v>
+        <v>241.116943359375</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -5057,7 +5060,7 @@
       </c>
       <c r="H31" s="1" t="n"/>
       <c r="I31" t="n">
-        <v>2.745285714285728</v>
+        <v>3.077619047619038</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -5112,7 +5115,7 @@
       </c>
       <c r="B32" s="3" t="n"/>
       <c r="C32" t="n">
-        <v>239.8999938964844</v>
+        <v>240.5269775390625</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -5129,7 +5132,7 @@
       </c>
       <c r="H32" s="1" t="n"/>
       <c r="I32" t="n">
-        <v>2.986057142857135</v>
+        <v>3.285323809523817</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -5202,7 +5205,7 @@
       </c>
       <c r="H33" s="1" t="n"/>
       <c r="I33" t="n">
-        <v>2.628828571428556</v>
+        <v>2.837495238095244</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -5275,7 +5278,7 @@
       </c>
       <c r="H34" s="1" t="n"/>
       <c r="I34" t="n">
-        <v>2.358466666666686</v>
+        <v>2.512066666666669</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -5348,7 +5351,7 @@
       </c>
       <c r="H35" s="1" t="n"/>
       <c r="I35" t="n">
-        <v>2.407838095238105</v>
+        <v>2.63163809523806</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -5421,7 +5424,7 @@
       </c>
       <c r="H36" s="1" t="n"/>
       <c r="I36" t="n">
-        <v>2.45214285714286</v>
+        <v>2.719787301587303</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -5494,7 +5497,7 @@
       </c>
       <c r="H37" s="1" t="n"/>
       <c r="I37" t="n">
-        <v>2.560733333333332</v>
+        <v>2.872222222222234</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -5567,7 +5570,7 @@
       </c>
       <c r="H38" s="1" t="n"/>
       <c r="I38" t="n">
-        <v>2.725990476190475</v>
+        <v>3.081323809523809</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -5640,7 +5643,7 @@
       </c>
       <c r="H39" s="1" t="n"/>
       <c r="I39" t="n">
-        <v>1.459580952380918</v>
+        <v>1.769380952380914</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -5713,7 +5716,7 @@
       </c>
       <c r="H40" s="1" t="n"/>
       <c r="I40" t="n">
-        <v>1.19757142857145</v>
+        <v>1.480104761904784</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -5786,7 +5789,7 @@
       </c>
       <c r="H41" s="1" t="n"/>
       <c r="I41" t="n">
-        <v>1.132028571428577</v>
+        <v>1.42936190476189</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -5859,7 +5862,7 @@
       </c>
       <c r="H42" s="1" t="n"/>
       <c r="I42" t="n">
-        <v>0.5442857142857349</v>
+        <v>0.9622857142857413</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -5932,7 +5935,7 @@
       </c>
       <c r="H43" s="1" t="n"/>
       <c r="I43" t="n">
-        <v>0.4704761904761767</v>
+        <v>0.7491428571428287</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -6005,7 +6008,7 @@
       </c>
       <c r="H44" s="1" t="n"/>
       <c r="I44" t="n">
-        <v>0.473809523809507</v>
+        <v>0.6131428571428614</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
